--- a/2й курс/Вышмат/ПРименениеИнтегралов красивые картинки.xlsx
+++ b/2й курс/Вышмат/ПРименениеИнтегралов красивые картинки.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazar\Documents\study\2й курс\Вышмат\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nazar\Documents\study\P-8-24-Study\2й курс\Вышмат\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0617F-6DD5-42E6-8D0F-2B542C5CCADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6866AE86-8AD9-4305-9AC4-4E349089B926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B3B3701E-35BC-4BD7-AAEF-D21B478E8FD0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B3B3701E-35BC-4BD7-AAEF-D21B478E8FD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -8661,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F254D111-7A36-4D81-9D56-566220803694}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -10251,8 +10251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53F53F7-5D41-4288-9992-9DDFC2F82EE8}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10919,7 +10919,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
